--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA048B3B-59AF-9642-8A3B-E73D0E470EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF793485-F8AA-0746-97F3-EECD320F1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="24340" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -272,6 +272,39 @@
   </si>
   <si>
     <t>Moto 10</t>
+  </si>
+  <si>
+    <t>nameAr</t>
+  </si>
+  <si>
+    <t>دراجة ١</t>
+  </si>
+  <si>
+    <t>دراجة ٢</t>
+  </si>
+  <si>
+    <t>دراجة ٣</t>
+  </si>
+  <si>
+    <t>دراجة ٤</t>
+  </si>
+  <si>
+    <t>دراجة ٥</t>
+  </si>
+  <si>
+    <t>دراجة ٦</t>
+  </si>
+  <si>
+    <t>دراجة ٧</t>
+  </si>
+  <si>
+    <t>دراجة ٨</t>
+  </si>
+  <si>
+    <t>دراجة ٩</t>
+  </si>
+  <si>
+    <t>دراجة ١٠</t>
   </si>
 </sst>
 </file>
@@ -645,448 +678,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
         <v>1001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>85393</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>70659.66</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
         <v>1002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>90387</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>69055.78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
         <v>1003</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>95381</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>53</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>33225.480000000003</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5">
         <v>1004</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100375</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>50112.84</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
         <v>1005</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>105369</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>22316.07</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
         <v>1006</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110363</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>85448.62</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>66</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
         <v>1007</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>115357</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>38442.639999999999</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>67</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
         <v>1008</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>120351</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>65387.3</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
         <v>1009</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>125345</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>57021.32</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
         <v>1010</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>130339</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>59175.58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF793485-F8AA-0746-97F3-EECD320F1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1BB60-F143-D14A-919A-C40245FB33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="500" windowWidth="24340" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,6 +311,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,11 +372,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,23 +693,23 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -722,19 +734,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -742,412 +754,412 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>85393</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>70659.66</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1002</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>90387</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>69055.78</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1003</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>95381</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>33225.480000000003</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1004</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>100375</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>50112.84</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1005</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>105369</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>22316.07</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1006</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>110363</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>85448.62</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1007</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>115357</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>38442.639999999999</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1008</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>120351</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>65387.3</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1009</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>125345</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>57021.32</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1010</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>130339</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>59175.58</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
